--- a/cypress/downloads/order-invoice_abakarovmakscypress.xlsx
+++ b/cypress/downloads/order-invoice_abakarovmakscypress.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>65252a047244490f95c8a0ef</v>
+        <v>65252e167244490f95c8a533</v>
       </c>
       <c r="B2" t="str">
         <v>adidas original</v>
